--- a/Contoh-contoh/RAE/Rubrik_CPMK_OnlyOffice_7Kelas_Master.xlsx
+++ b/Contoh-contoh/RAE/Rubrik_CPMK_OnlyOffice_7Kelas_Master.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" showHorizontalScroll="1" showVerticalScroll="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
     <sheet name="Konfigurasi" sheetId="1" state="visible" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3">
-        <v>0.10000000000000001</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>0.25</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1935,7 +1935,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{005400D5-0027-4A23-85E5-00AF004A0080}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0033001F-00AF-46A5-B0A9-00F600B3005E}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -2476,7 +2476,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="13" width="20"/>
   </cols>
@@ -2925,7 +2925,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00000028-008F-46DD-A494-00E2009200B1}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00980092-00CA-4AA7-B384-005300A80054}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -3402,7 +3402,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E80028-000D-4ED8-9167-001E000B00B9}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0072007B-00B3-477D-992A-001D0004001B}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -3879,7 +3879,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{003B0078-00D9-4E1A-ACF5-0091005F00DF}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002A00B8-00F2-4996-ADB8-009D001C005B}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -4356,7 +4356,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D100F6-0084-401F-AAB3-007700360031}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003F0057-0053-4EEB-BFED-008100D8008E}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -4833,7 +4833,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{002000F4-00ED-4367-8D5C-00C500D80016}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0090003A-0022-4274-B2D2-009000AA00FB}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
@@ -5310,7 +5310,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00FE00B9-0021-441F-8706-00F8001200F8}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00670015-0041-4D0B-8389-00C600580026}" type="whole" allowBlank="1" error="Masukkan angka 1–4 saja." errorStyle="stop" errorTitle="Level tidak valid" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>1</xm:f>
           </x14:formula1>
